--- a/biology/Microbiologie/Eimeria/Eimeria.xlsx
+++ b/biology/Microbiologie/Eimeria/Eimeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eimeria est un genre d'organismes unicellulaires appartenant au groupe des apicomplexés, plus particulièrement aux coccidies. Ce sont des parasites intracellulaires[1] de vertébrés et d'invertébrés. Provoquant des pathologies surtout intestinales connues sous le nom de coccidioses, ils peuvent notamment occasionner d'importants dégâts dans les élevages.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eimeria est un genre d'organismes unicellulaires appartenant au groupe des apicomplexés, plus particulièrement aux coccidies. Ce sont des parasites intracellulaires de vertébrés et d'invertébrés. Provoquant des pathologies surtout intestinales connues sous le nom de coccidioses, ils peuvent notamment occasionner d'importants dégâts dans les élevages.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Cycle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cycle des coccidies : identique pour toutes les espèces.
 2 phases :
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,7 +591,9 @@
           <t>Espèces et hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Eimeria comporte plus de 1 500 espèces décrites.
 </t>
